--- a/benchmark/bionetwork/chris_group/Oriole_partition_num_cells_data_expanded annotated.xlsx
+++ b/benchmark/bionetwork/chris_group/Oriole_partition_num_cells_data_expanded annotated.xlsx
@@ -228,7 +228,7 @@
   <dimension ref="A1:EK142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2197,8 +2197,8 @@
       <c r="L6" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <v>33</v>
+      <c r="M6" s="4" t="n">
+        <v>36</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>33</v>
@@ -2621,8 +2621,8 @@
       <c r="L7" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="M7" s="0" t="n">
-        <v>27</v>
+      <c r="M7" s="4" t="n">
+        <v>28</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>27</v>
@@ -3045,8 +3045,8 @@
       <c r="L8" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="M8" s="0" t="n">
-        <v>22</v>
+      <c r="M8" s="4" t="n">
+        <v>23</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>22</v>
@@ -3469,8 +3469,8 @@
       <c r="L9" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <v>19</v>
+      <c r="M9" s="4" t="n">
+        <v>20</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>19</v>
@@ -3887,14 +3887,14 @@
       <c r="J10" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="M10" s="4" t="n">
         <v>18</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>17</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>17</v>

--- a/benchmark/bionetwork/chris_group/Oriole_partition_num_cells_data_expanded annotated.xlsx
+++ b/benchmark/bionetwork/chris_group/Oriole_partition_num_cells_data_expanded annotated.xlsx
@@ -20,12 +20,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="26">
   <si>
     <t xml:space="preserve">Max # of channels</t>
   </si>
   <si>
     <t xml:space="preserve">inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84(89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67(66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84(75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47(44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46(44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45(44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84(70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38(34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37(33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36(33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70(67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40(41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29(27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28(27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70(65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23(22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68(65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20(19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63(64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19(18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19(17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18(17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16(15)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -136,11 +205,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,10 +297,10 @@
   <dimension ref="A1:EK142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="10:10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1" t="s">
@@ -1328,11 +1397,11 @@
       <c r="E4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>84</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>67</v>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>66</v>
@@ -1752,20 +1821,20 @@
       <c r="E5" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>84</v>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>47</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>45</v>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>44</v>
@@ -2176,29 +2245,29 @@
       <c r="E6" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>36</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>36</v>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>33</v>
@@ -2600,29 +2669,29 @@
       <c r="E7" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="n">
-        <v>70</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>40</v>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="I7" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>28</v>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>27</v>
@@ -3024,8 +3093,8 @@
       <c r="E8" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="n">
-        <v>70</v>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>36</v>
@@ -3036,17 +3105,17 @@
       <c r="I8" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="J8" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>23</v>
+      <c r="J8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>22</v>
@@ -3448,8 +3517,8 @@
       <c r="E9" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>68</v>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>36</v>
@@ -3463,14 +3532,14 @@
       <c r="J9" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="K9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>20</v>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>19</v>
@@ -3872,8 +3941,8 @@
       <c r="E10" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="n">
-        <v>63</v>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>36</v>
@@ -3887,14 +3956,14 @@
       <c r="J10" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="K10" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>18</v>
+      <c r="K10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>17</v>
@@ -4296,29 +4365,29 @@
       <c r="E11" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>63</v>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>22</v>
+      <c r="H11" s="3" t="n">
+        <v>21</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="K11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>15</v>
+      <c r="K11" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>16</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>15</v>
@@ -4705,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="0" t="n">
         <f aca="false">B11+1</f>
@@ -4723,14 +4792,14 @@
       <c r="F12" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>18</v>
+      <c r="G12" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>16</v>
@@ -4738,11 +4807,11 @@
       <c r="K12" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>14</v>
+      <c r="L12" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>14</v>
@@ -5129,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="0" t="n">
         <f aca="false">B12+1</f>
@@ -5150,11 +5219,11 @@
       <c r="G13" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>18</v>
+      <c r="H13" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>15</v>
@@ -5553,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="0" t="n">
         <f aca="false">B13+1</f>
@@ -5574,11 +5643,11 @@
       <c r="G14" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>18</v>
+      <c r="H14" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>14</v>
@@ -5977,7 +6046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="0" t="n">
         <f aca="false">B14+1</f>
@@ -5998,11 +6067,11 @@
       <c r="G15" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>17</v>
+      <c r="H15" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>13</v>
@@ -6401,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="0" t="n">
         <f aca="false">B15+1</f>
@@ -6422,8 +6491,8 @@
       <c r="G16" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>22</v>
+      <c r="H16" s="3" t="n">
+        <v>21</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>16</v>
@@ -6825,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="0" t="n">
         <f aca="false">B16+1</f>
@@ -6846,8 +6915,8 @@
       <c r="G17" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>22</v>
+      <c r="H17" s="3" t="n">
+        <v>21</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>16</v>
@@ -7249,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="0" t="n">
         <f aca="false">B17+1</f>
@@ -7270,8 +7339,8 @@
       <c r="G18" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>22</v>
+      <c r="H18" s="3" t="n">
+        <v>21</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>16</v>
@@ -59827,7 +59896,7 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/benchmark/bionetwork/chris_group/Oriole_partition_num_cells_data_expanded annotated.xlsx
+++ b/benchmark/bionetwork/chris_group/Oriole_partition_num_cells_data_expanded annotated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="25">
   <si>
     <t xml:space="preserve">Max # of channels</t>
   </si>
@@ -37,25 +37,19 @@
     <t xml:space="preserve">84(75)</t>
   </si>
   <si>
-    <t xml:space="preserve">47(44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46(44)</t>
-  </si>
-  <si>
     <t xml:space="preserve">45(44)</t>
   </si>
   <si>
-    <t xml:space="preserve">84(70)</t>
+    <t xml:space="preserve">77(70)</t>
   </si>
   <si>
-    <t xml:space="preserve">38(34)</t>
+    <t xml:space="preserve">43(44)</t>
   </si>
   <si>
-    <t xml:space="preserve">37(33)</t>
+    <t xml:space="preserve">36(34)</t>
   </si>
   <si>
-    <t xml:space="preserve">36(33)</t>
+    <t xml:space="preserve">34(33)</t>
   </si>
   <si>
     <t xml:space="preserve">70(67)</t>
@@ -95,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">16(15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15(14)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -297,10 +294,10 @@
   <dimension ref="A1:EK142"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="10:10"/>
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="1" t="s">
@@ -1806,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="0" t="n">
         <f aca="false">B4+1</f>
@@ -1830,11 +1827,11 @@
       <c r="H5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>7</v>
+      <c r="I5" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>44</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>44</v>
@@ -2246,28 +2243,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>33</v>
@@ -2670,28 +2667,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>27</v>
@@ -3094,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="n">
         <v>36</v>
@@ -3106,16 +3103,16 @@
         <v>24</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>22</v>
@@ -3518,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>36</v>
@@ -3533,13 +3530,13 @@
         <v>21</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>19</v>
@@ -3942,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>36</v>
@@ -3957,13 +3954,13 @@
         <v>19</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>17</v>
@@ -4366,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>36</v>
@@ -4384,10 +4381,10 @@
         <v>16</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="N11" s="0" t="n">
         <v>15</v>
@@ -4807,11 +4804,11 @@
       <c r="K12" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>15</v>
+      <c r="L12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>14</v>
@@ -59896,7 +59893,7 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
